--- a/Data/New_pathway_noscapine.xlsx
+++ b/Data/New_pathway_noscapine.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cheyu/Documents/GitHub/CofactorYeast/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A56C14DB-2A03-7243-9B2E-E11622853CE9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA90C77C-D19A-5F4C-ABB2-65FE0662A201}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{AA1C94E4-56CD-3140-BF87-113D1E6E5D47}"/>
+    <workbookView xWindow="-38420" yWindow="460" windowWidth="38400" windowHeight="21140" activeTab="1" xr2:uid="{AA1C94E4-56CD-3140-BF87-113D1E6E5D47}"/>
   </bookViews>
   <sheets>
     <sheet name="Metabolic_rxns" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="245">
   <si>
     <t>Description</t>
   </si>
@@ -262,9 +262,6 @@
     <t>MQLKAKEELLRNMELGLIPDQEIRQLIRVELEKRLQWGYKETHEEQLSQLLDLVHSLKGMKMATEMENLDLKLYEAPMEFLKIQHGSNMKQSAGYYTDESTTLDEAEIAMLDLYMERAQIKDGQSVLDLGCGLGAVALFGANKFKKCQFTGVTSSVEQKDYIEGKCKELKLTNVKVLLADITTYETEERFDRIFAVELIEHMKNYQLLLKKISEWMKDDGLLFVEHVCHKTLAYHYEPVDAEDWYTNYIFPAGTLTLSSASMLLYFQDDVSVVNQWTLSGKHYSRSHEEWLKNMDKNIVEFKEIMRSITKTEKEAIKLLNFWRIFCMCGAELFGYKNGEEWMLTHLLFKKK</t>
   </si>
   <si>
-    <t>Brenda (sa from Coptis japonica)</t>
-  </si>
-  <si>
     <t>O64899</t>
   </si>
   <si>
@@ -298,9 +295,6 @@
     <t>Brenda (kcat from Artemisia annua)</t>
   </si>
   <si>
-    <t>Brenda (median of 1.14.14.-)</t>
-  </si>
-  <si>
     <t>Q7XB10</t>
   </si>
   <si>
@@ -443,9 +437,6 @@
   </si>
   <si>
     <t>N-methylcoclaurine hydroxylase</t>
-  </si>
-  <si>
-    <t>3’-hydroxyN-methylcoclaurine 4’-O-methyltransferase</t>
   </si>
   <si>
     <t>r_tNoscapine</t>
@@ -924,6 +915,291 @@
       </rPr>
       <t xml:space="preserve"> + H+[cytoplasm] + S-adenosyl-L-homocysteine[cytoplasm]</t>
     </r>
+  </si>
+  <si>
+    <t>r_BBE</t>
+  </si>
+  <si>
+    <t>﻿berberine bridge enzyme</t>
+  </si>
+  <si>
+    <t>(S)-Scoulerine [cytoplasm]</t>
+  </si>
+  <si>
+    <t>P93479</t>
+  </si>
+  <si>
+    <t>1.21.3.3</t>
+  </si>
+  <si>
+    <t>BBE</t>
+  </si>
+  <si>
+    <t>MMCRSLTLRFFLFIVLLQTCVRGGDVNDNLLSSCLNSHGVHNFTTLSTDTNSDYFKLLHASMQNPLFAKPTVSKPSFIVMPGSKEELSSTVHCCTRESWTIRLRSGGHSYEGLSYTADTPFVIVDMMNLNRISIDVLSETAWVESGATLGELYYAIAQSTDTLGFTAGWCPTVGSGGHISGGGFGMMSRKYGLAADNVVDAILIDSNGAILDREKMGDDVFWAIRGGGGGVWGAIYAWKIKLLPVPEKLTVFRVTKNVGIEDASSLLHKWQYVADELDEDFTVSVLGGVNGNDAWLMFLGLHLGRKDAAKTIIDEKFPELGLVDKEFQEMSWGESMAFLSGLDTISELNNRFLKFDERAFKTKVDFTKVSVPLNVFRHALEMLSEQPGGFIALNGFGGKMSEISTDFTPFPHRKGTKLMFEYIIAWNQDEESKIGEFSEWLAKFYDYLEPFVSKEPRVGYVNHIDLDIGGIDWRNKSSTTNAVEIARNWGERYFSSNYERLVKAKTLIDPNNVFNHPQSIPPMMKFEEIYMLKEL</t>
+  </si>
+  <si>
+    <t>Brenda (kcat from Eschscholzia californica)</t>
+  </si>
+  <si>
+    <t>r_﻿S9OMT</t>
+  </si>
+  <si>
+    <t>﻿S9OMT</t>
+  </si>
+  <si>
+    <t>MATNGEIFNTYGHNHQSATVTKITASNESSNGVCYLSETANLGKLICIPMALRAAMELNVFQLISKFGTDAKVSASEIASKMPNAKNNPEAAMYLDRILRLLGASSILSVSTTKKSINRGGDDVVVHEKLYGLTNSSCCLVPRQEDGVSLVEELLFTSDKVVVDSFFKLKCVVEEKDSVPFEVAHGAKIFEYAATEPRMNQVFNDGMAVFSIVVFEAVFRVYDGFLDMKELLDVGGGIGTSVSKIVAKYPLIRGVNFDLPHVISVAPQYPGVEHVAGDMFEEVPKGQNMLLKWVLHDWGDERCVKLLKNCWNSLPVGGKVLIIEFVLPNELGNNAESFNALIPDLLLMALNPGGKERTISEYDDLGKAAGFIKTIPIPISNGLHVIEFHK</t>
+  </si>
+  <si>
+    <t>﻿scoulerine 9-O-methyltransferase</t>
+  </si>
+  <si>
+    <t>I3V6A7</t>
+  </si>
+  <si>
+    <t>2.1.1.117</t>
+  </si>
+  <si>
+    <t>(S)-Tetrahydrocolumbamine [cytoplasm]</t>
+  </si>
+  <si>
+    <t>r_﻿CAS</t>
+  </si>
+  <si>
+    <t>﻿canadine synthase</t>
+  </si>
+  <si>
+    <t>﻿CAS</t>
+  </si>
+  <si>
+    <t>MEMNPLLVCATVAIVFATTTIIRILFSSSSLPQMKWPSGPRKLPIIGNLHQLGDDVLHVALAKLAKVHGSVMTIWIGSWRPVIVISDIEKAWEVLVNKSADYGARDMPEITKIASASWHTISTSDAGSFWQNVRKGLQSGAMGPLNVAAQNQYQERDMKRLIKAMSDEAANNNGIVKPLDHIKKNTVRLLTRLIFGQAFDDNKFIESMHYEIEDIIRISGYARLAEAFYYAKYLPSHKKAEREAFLVKCRVEELVRPLLSSKPPTNSYLYFLLSQNFEEEVIIFCIFELYLLGVDSTSSTTTWALAYLIREQGAQEKLYQDIRMTLGDVDLVKIEDVNKLKYLQGVVKETMRMKPIAPLAIPHKTAKETTLMGTKVAKGTRIMVNLYALHHNQNIWPDPYKFMPERFLEGETGTAYNKAMEQSFLPFSAGMRICAGMDLGKLQFAFALANLVNAFKWSCVEEGKLPDMGEELSFVLLMKTPLEARIAGRNV</t>
+  </si>
+  <si>
+    <t>Q948Y1</t>
+  </si>
+  <si>
+    <t>1.14.19.68</t>
+  </si>
+  <si>
+    <t>(S)-Canadine [cytoplasm]</t>
+  </si>
+  <si>
+    <t>Brenda (median of max kcats of 1.14.19.-)</t>
+  </si>
+  <si>
+    <t>﻿TNMT</t>
+  </si>
+  <si>
+    <t>r_﻿TNMT</t>
+  </si>
+  <si>
+    <t>﻿tetrahydroprotoberberine cis-N-methyltransferase</t>
+  </si>
+  <si>
+    <t>MRTESIKTNRPMDLLLQYLQPISVALVVIALVWNYGRRNPTKKLAPEASGAWPVIGHLLLFMNENDLNHVTLGHMADKYGPIFSLRFGRHRTLVVSSWEMVKECFTGTNDKLFSNRPSSLAVKLMFYDTESYGFAPYGKYWRELRKISTHKLLSNQQLEKFKHLRISEVDNSFKKLHELCSNNKQGGDTTYVASLVRMDDWFAYLTFNVIGRIVSGFQSNAVAGATNSQEKYKLAIDEVSNLMATFAVSDVVPRLGWIDRLTGLTGKMKNCGKKLDAVVGDAVEDHRQKKLKISRNNTGALTEHEEEDFIDVCLSIMEQSQIPGNHPEISVKSIALDMLSGGSDTTKLIMTWTLSLLLNHPDILDKAKEEVDTYFGKKKISDNTPVVDAADVPNLVYIQAIIKESMRLYPASTLMERMTSDDCDVGGFHVPAGTRLWVNVWKMQRDPRVWKDPLVFLPERFLSNDKGMVDVKGQNYELIPFGTGRRICPGASFALEVLHLVLTRLILEFEMKAPEGKIDMRARPGFFHNKVVPLDVQLTPRTLD</t>
+  </si>
+  <si>
+    <t>(S)-Scoulerine[cytoplasm] + S-adenosyl-L-methionine[cytoplasm] =&gt; (S)-Tetrahydrocolumbamine[cytoplasm] + H+[cytoplasm] + S-adenosyl-L-homocysteine[cytoplasm]</t>
+  </si>
+  <si>
+    <t>(S)-Tetrahydrocolumbamine[cytoplasm] + oxygen[cytoplasm] + reduced-NADPH-hemoprotein-reductase[cytoplasm] =&gt; (S)-Canadine[cytoplasm] + H+[cytoplasm] + 2 H2O[cytoplasm] + oxidized-NADPH-hemoprotein-reductase[cytoplasm]</t>
+  </si>
+  <si>
+    <t>2.1.1.122</t>
+  </si>
+  <si>
+    <t>Q108P1</t>
+  </si>
+  <si>
+    <t>(S)-N-methylcanadine [cytoplasm]</t>
+  </si>
+  <si>
+    <t>Brenda (median of max kcats of 2.1.1.1x)</t>
+  </si>
+  <si>
+    <t>(S)-Canadine[cytoplasm] + S-adenosyl-L-methionine[cytoplasm] =&gt; (S)-N-methylcanadine[cytoplasm] + S-adenosyl-L-homocysteine[cytoplasm]</t>
+  </si>
+  <si>
+    <t>r_﻿CYP82Y1</t>
+  </si>
+  <si>
+    <t>﻿CYP82Y1</t>
+  </si>
+  <si>
+    <t>MGSIDEVKKESAGETLGRLLKGEIKDEELKKLIKFQFEKRLQWGYKSSHQEQLSFNLDFIKSLKKMEMSGEIETMNKETYELPSEFLEAVFGKTVKQSMCYFTHESATIDEAEEAAHELYCERAQIKDGQTVLDIGCGQGGLVLYIAQKYKNCHVTGLTNSKAQVNYLLKQAEKLGLTNVDAILADVTQYESDKTYDRLLMIEAIEHMKNLQLFMKKLSTWMTKESLLFVDHVCHKTFAHFFEAVDEDDWYSGFIFPPGCATILAANSLLYFQDDVSVVDHWVVNGMHMARSVDIWRKALDKNMEAAKEILLPGLGGSHETVNGVVTHIRTFCMGGYEQFSMNNGDEWMVAQLLFKKK</t>
+  </si>
+  <si>
+    <t>﻿1-hydroxy-N-methylcanadine synthase</t>
+  </si>
+  <si>
+    <t>I3PLR1</t>
+  </si>
+  <si>
+    <t>1.14.14.166</t>
+  </si>
+  <si>
+    <t>(S)-N-methylcanadine[cytoplasm] + oxygen[cytoplasm] +  reduced-NADPH-hemoprotein-reductase[cytoplasm] =&gt; (S)-1-Hydroxy-N-methylcanadine[cytoplasm] + H+[cytoplasm] + H2O[cytoplasm] + oxidized-NADPH-hemoprotein-reductase[cytoplasm]</t>
+  </si>
+  <si>
+    <t>Brenda (median of max kcats of 1.14.14.1x)</t>
+  </si>
+  <si>
+    <t>r_﻿CYP82X2</t>
+  </si>
+  <si>
+    <t>﻿CYP82X2</t>
+  </si>
+  <si>
+    <t>MKSLMMNKLLFLQRITDSPSTTIISTFIVTIISIVFLYTVLLIRTTKNKQKIAAPKASGAWPFIGHLKLFMKQDTQFYRTLGTMSDKYGSVFTLRLGNQAILVVSNWEMVKECFTTNDKSFSNRPSTLSTKYMLNDTNSVVFSPYGTYWREMRKILVQKLLISNQRSEALKNLKTKEIDNSFVKLNDLCNNDVSGGGTKVRMDEWLADMMFNIIARITFGYQSGGGDAPGASTTSKNVERYKKTLDEMFVVLATRFAVSDIFPSLEFIDRLRGLVKDMKILGDELNSIAGCFIEEHRQKRRESLSSLLSLSNESVGDEQDFIDVLLSIMDQSRLPGDDPDFIIKIMILEAFAGGTDSLSATLTWVLSLLLNHPNVLKRAREEIDRHVENGKQVEVSDIPKLGYIDAIIKETMRLYPVGALSERYTTEECEVGRFNVPAGTRLLVNIWKIHRDPSVWENPSDFQPERFLCSDKVGVDLYGQNYELIPFGAGRRVCPAIVSSLQTMHYALARLIQGYEMKSASLDGKVNMEEMIAMSCHKMSPLEVIISPREPRRS</t>
+  </si>
+  <si>
+    <t>﻿1-hydroxy-N-methylcanadine 13-hydroxylase</t>
+  </si>
+  <si>
+    <t>1.14.14.163</t>
+  </si>
+  <si>
+    <t>I3PLR0</t>
+  </si>
+  <si>
+    <t>(S)-1-Hydroxy-N-methylcanadine[cytoplasm] + oxygen[cytoplasm] +  reduced-NADPH-hemoprotein-reductase[cytoplasm] =&gt; 1,13-Dihydroxy-N-methylcanadine[cytoplasm] + H+[cytoplasm] + H2O[cytoplasm] + oxidized-NADPH-hemoprotein-reductase[cytoplasm]</t>
+  </si>
+  <si>
+    <t>1,13-Dihydroxy-N-methylcanadine [cytoplasm]</t>
+  </si>
+  <si>
+    <t>(S)-1-Hydroxy-N-methylcanadine [cytoplasm]</t>
+  </si>
+  <si>
+    <t>r_﻿AT1</t>
+  </si>
+  <si>
+    <t>﻿AT1</t>
+  </si>
+  <si>
+    <t>MATMSSAAVEVISKETIKPRNPTPYQLRNYNMSLLDQYSSLVYVPIILFYPAASDANSTGSKHHDDLHLLKRSLSETLVHFYPMAGRMKDNMTVDCNDEGIDFFEVRIKGRMCDFMMKSDAHLSLLLPSEVASTNFVKEAQVIVQVNMFDCGGTAICFCISNKIADACTMITFIRSLAGTTNIARRGSSIAAPTTNQNLVPSFDSTSLFPPSEQLASQVSYPTQDSTSVDKLVSKRFVFDAAKITSAREKLQSLMHDKYKCHRPTRVEVVSALIWKSAVKSAPPGSISTVTHAMNFRKKMDPPLQDASFGNLCVVVTAVLPATTATTTNPATKKVSSTSNEEQVALDELSDFVALLRREIDKVKGDKGCMEKIIQKFIYGHDASVAKDSDVEDKVTALFMTSWCKFGFYEADFGWGTPVWVTTVPLIEPKYKNMVFMNDMKCGEGIEVWVNFLEDDMTKFEHHLREILQLF</t>
+  </si>
+  <si>
+    <t>﻿1,13-dihydroxy-N-methylcandine 13-﻿O-acetyltransferase</t>
+  </si>
+  <si>
+    <t>2.3.1.285</t>
+  </si>
+  <si>
+    <t>I3PLR4</t>
+  </si>
+  <si>
+    <t>1,13-Dihydroxy-N-methylcanadine[cytoplasm] + acetyl-CoA[cytoplasm] =&gt; 1-Hydroxy-13-O-acetyl-N-methylcanadine[cytoplasm] + coenzyme&amp;A[cytoplasm]</t>
+  </si>
+  <si>
+    <t>(S)-Reticuline[cytoplasm] + oxygen[cytoplasm] =&gt; (S)-Scoulerine[cytoplasm] + H+[cytoplasm] + hydrogen&amp;peroxide[cytoplasm]</t>
+  </si>
+  <si>
+    <t>r_﻿CYP82X1</t>
+  </si>
+  <si>
+    <t>﻿CYP82X1</t>
+  </si>
+  <si>
+    <t>MELFIKLPFIQPIPFSIILVTTVSIVLLYSVFFWVTDKKKKRKKAPNAAGAWPLIGHLRLLMNDKEPLYRALGSMADKYGPAFNIRLGNQEVLVVSNWEMVKQCFGNQNDKLFSNRQTTLAAKYMLNQTTSSGFAPYGPYWRELRKIMVQQLLSKQSLESWKHLKIKEMDASFSKLNELCNNNGTGTATLIRMDEWFAELTFNVIARNVFGYQSGGRSTALTNGDTESKGERYKKTLEEALHLMSIFAVSDIFPSLEWVDRLRGLIRNMKRFGDELNSIAGCLIEEHRQKRLQSVSKSDKGVGDEQDFVDVLLSVAEKSQLPGDDPDLVIKSMILEIVSGGSETTSSTLTWALCLLLNHPHVLKKAKEELDTHVGKDRHVEESDTPKLVYINAIIKESMRLYPNGAMLDRLALEECEVGGFHVPAGGRLFVNVWKIQRDPSVWENPLEFKPERWFLSNGEKMDVDYKGHNHEFIPFGIGRRMCAGMLWASEVIHLVLPRLIHGFDMKAASANGKVDMAEMAGMVICFKKTPLEVMVNPRE</t>
+  </si>
+  <si>
+    <t>﻿1-hydroxy-13-O-acetyl-N-methylcanadine 8-hydroxylase</t>
+  </si>
+  <si>
+    <t>I3V6B7</t>
+  </si>
+  <si>
+    <t>1.14.14.167</t>
+  </si>
+  <si>
+    <t>1-Hydroxy-13-O-acetyl-N-methylcanadine [cytoplasm]</t>
+  </si>
+  <si>
+    <t>r_﻿CXE1</t>
+  </si>
+  <si>
+    <t>﻿CXE1</t>
+  </si>
+  <si>
+    <t>MADPYEFLMCIHNPEEDTLTRNFPIPATPLDQNTKDISLNPDRKTSLRIFRPPTKEPPVTKNKLLPIIIYFHGGGFILFNADSTMNHDFCQSIATHIPALVVSVDYRLAPENRLPAAYDDAVDALNWVKDQGLGKLNNSEVWLKEYGDFSKCFIMGCSSGANVAYHASLRAIEMDLEPAKINGLILHCPFFGSLERTESDSKVINNQDLPLAVRDVMWELALPLGSTRDHVYCNPNIDHDGSSSGNMVGLIERCFVVGFYGDPLIDRQIQLVKMLEEKGVKVETWIEQGGYHGVLCFDPMIRETFLEKLKHFILNDEFIY</t>
+  </si>
+  <si>
+    <t>﻿3-O-acetylpapaveroxine carboxylesterase</t>
+  </si>
+  <si>
+    <t>3.1.1.105</t>
+  </si>
+  <si>
+    <t>I3PLR2</t>
+  </si>
+  <si>
+    <t>2.1.1.352</t>
+  </si>
+  <si>
+    <t>r_﻿SDR1</t>
+  </si>
+  <si>
+    <t>﻿SDR1</t>
+  </si>
+  <si>
+    <t>﻿short-chain dehydrogenase/reductase</t>
+  </si>
+  <si>
+    <t>MHGQKNISERYQKFKEMEGTGKIVCVTGGAGYLASWLIMRLLERGYSVRTTVRSDPKFREDVSHLKALPEATEKLQIFEADLENPESFDDAINGCVGVFLVAQGMNFAEEYTLEKIIKTCVEGTLRILQSCLKSKTVKKVVYTSSADAAMMISNLKAVKEIDETIWSEVDNFISKPEQVIPGLPSYVVSKVLTERACLKFSEEHGLDVVTILPPLVVGPFITPHPPPSVSIALSIISGDVSMMLGVRLENAVHIDDVALAHIFVFECEKAKGRHICSSVDFPMHDLPKFISENYPEFNVPTDLLKDIEEQEPVHLSSDKLLSMGFQFKYDFAEIFGDAIRCAKEKGFL</t>
+  </si>
+  <si>
+    <t>1.1.1.415</t>
+  </si>
+  <si>
+    <t>I3PLR3</t>
+  </si>
+  <si>
+    <t>1-Hydroxy-13-O-acetyl-N-methylcanadine[cytoplasm] + oxygen[cytoplasm] +  reduced-NADPH-hemoprotein-reductase[cytoplasm] =&gt; 4'-O-Demethyl-3-O-acetylpapaveroxine[cytoplasm] + 2 H+[cytoplasm] + H2O[cytoplasm] + oxidized-NADPH-hemoprotein-reductase[cytoplasm]</t>
+  </si>
+  <si>
+    <t>I3PLQ6</t>
+  </si>
+  <si>
+    <t>3’-hydroxy-N-methylcoclaurine 4’-O-methyltransferase</t>
+  </si>
+  <si>
+    <t>O-methyltransferase</t>
+  </si>
+  <si>
+    <t>r_N4OMT</t>
+  </si>
+  <si>
+    <t>4'-O-Demethyl-3-O-acetylpapaveroxine[cytoplasm] + S-adenosyl-L-methionine[cytoplasm] =&gt; 3-O-acetylpapaveroxine[cytoplasm] + H+[cytoplasm] + S-adenosyl-L-homocysteine[cytoplasm]</t>
+  </si>
+  <si>
+    <t>3-O-acetylpapaveroxine[cytoplasm] + H2O[cytoplasm] =&gt; acetate[cytoplasm] + H+[cytoplasm] + narcotinehemiacetal[cytoplasm]</t>
+  </si>
+  <si>
+    <t>4'-O-Demethyl-3-O-acetylpapaveroxine [cytoplasm]</t>
+  </si>
+  <si>
+    <t>3-O-acetylpapaveroxine [cytoplasm]</t>
+  </si>
+  <si>
+    <t>Noscapine [extracellular]</t>
+  </si>
+  <si>
+    <t>Noscapine [cytoplasm]</t>
+  </si>
+  <si>
+    <t>Narcotinehemiacetal [cytoplasm]</t>
+  </si>
+  <si>
+    <t>N4OMT</t>
+  </si>
+  <si>
+    <t>MEIHLESQEQEMKYQSQIWNQICGTVDTSVLRCAIQLGIFDAIHNSGKPMITLTELSSIVSSPSSSSIEPCNLYRLVRYLSQMDLISIGECLNEATVSLTGTSKLLLRNQEKSLIDWVLAISCEMMVVVWHELSSSVSTPADEPPIFQKVHGKNALELAGEFPEWNDLINNAMTSDTSVTKPALIQGCGKILNGVTSLIDVGGGHGATMAYIVEAFPHIKGAVIDLPHVVEAAPERPGVEFISGDIFKSISNADAVLLKYVLHNWEDTECVNLLKRCKEAVPADKGKVIIMDLVIDDDDNSILTQAKLSLDLTVMNHGGGRERTKEDWRNLIEMSGFSRHEIIPISAMPSIIVAYP</t>
+  </si>
+  <si>
+    <t>NADP+[cytoplasm] + Narcotinehemiacetal[cytoplasm] =&gt; H+[cytoplasm] + NADPH[cytoplasm] + Noscapine[cytoplasm]</t>
+  </si>
+  <si>
+    <t>Brenda (kcat from Papaver somniferum)</t>
   </si>
 </sst>
 </file>
@@ -1294,22 +1570,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9063BEFC-4FD3-134C-989A-E924DACA1919}">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="12.5" style="2" customWidth="1"/>
-    <col min="2" max="2" width="37.83203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="153.33203125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="46" style="2" customWidth="1"/>
+    <col min="3" max="3" width="219.5" style="2" customWidth="1"/>
+    <col min="4" max="4" width="9.83203125" style="2" customWidth="1"/>
     <col min="5" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
@@ -1326,15 +1602,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="2" customFormat="1">
+    <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>11</v>
@@ -1343,15 +1619,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="2" customFormat="1">
+    <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>26</v>
@@ -1360,15 +1636,15 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="2" customFormat="1">
+    <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>32</v>
@@ -1377,15 +1653,15 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="2" customFormat="1">
+    <row r="5" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>35</v>
@@ -1394,26 +1670,26 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="2" customFormat="1">
+    <row r="6" spans="1:5">
       <c r="A6" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" s="2" customFormat="1">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>39</v>
@@ -1422,15 +1698,15 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="2" customFormat="1">
+    <row r="8" spans="1:5">
       <c r="A8" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>42</v>
@@ -1439,15 +1715,15 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="2" customFormat="1">
+    <row r="9" spans="1:5">
       <c r="A9" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>58</v>
@@ -1456,15 +1732,15 @@
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="2" customFormat="1">
+    <row r="10" spans="1:5">
       <c r="A10" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>60</v>
@@ -1473,32 +1749,32 @@
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="2" customFormat="1">
+    <row r="11" spans="1:5">
       <c r="A11" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" s="2" customFormat="1">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>69</v>
@@ -1507,15 +1783,15 @@
         <v>68</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="2" customFormat="1">
+    <row r="13" spans="1:5">
       <c r="A13" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>72</v>
@@ -1524,73 +1800,249 @@
         <v>73</v>
       </c>
     </row>
-    <row r="14" spans="1:5" s="2" customFormat="1">
+    <row r="14" spans="1:5">
       <c r="A14" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" s="2" customFormat="1">
-      <c r="A15" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" s="2" customFormat="1"/>
-    <row r="20" spans="1:3" s="2" customFormat="1">
-      <c r="A20" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" s="2" customFormat="1">
-      <c r="A21" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="B21" s="2" t="s">
+      <c r="B28" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" s="2" customFormat="1"/>
-    <row r="23" spans="1:3" s="2" customFormat="1"/>
-    <row r="24" spans="1:3" s="2" customFormat="1"/>
-    <row r="25" spans="1:3" s="2" customFormat="1"/>
-    <row r="26" spans="1:3" s="2" customFormat="1"/>
-    <row r="27" spans="1:3" s="2" customFormat="1"/>
-    <row r="28" spans="1:3" s="2" customFormat="1"/>
-    <row r="29" spans="1:3" s="2" customFormat="1"/>
-    <row r="30" spans="1:3" s="2" customFormat="1"/>
-    <row r="31" spans="1:3" s="2" customFormat="1"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1600,10 +2052,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8042DFE1-B4A0-714F-8A18-C4BDC72AEB89}">
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1611,11 +2063,12 @@
     <col min="1" max="1" width="10.83203125" style="1"/>
     <col min="2" max="2" width="12.6640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.1640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="21.83203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.1640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21.1640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="13.83203125" style="1" customWidth="1"/>
-    <col min="7" max="10" width="10.83203125" style="1"/>
-    <col min="11" max="11" width="35.1640625" style="1" customWidth="1"/>
+    <col min="7" max="9" width="10.83203125" style="1"/>
+    <col min="10" max="10" width="8.83203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="37.5" style="1" customWidth="1"/>
     <col min="12" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
@@ -1850,19 +2303,19 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>84</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>66</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>29</v>
@@ -1871,7 +2324,7 @@
         <v>65.900000000000006</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1955,34 +2408,33 @@
         <v>29</v>
       </c>
       <c r="J12" s="1">
-        <f>1.08*41032/60/1000</f>
-        <v>0.73857600000000012</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>75</v>
+        <v>182</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" t="s">
+        <v>77</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D13" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>80</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>29</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H13" s="1">
         <v>1</v>
@@ -1991,27 +2443,27 @@
         <v>22</v>
       </c>
       <c r="J13" s="1">
-        <v>0.45800000000000002</v>
+        <v>0.45</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>87</v>
+        <v>191</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>66</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>29</v>
@@ -2021,6 +2473,333 @@
         <v>7.2396383999999994E-2</v>
       </c>
       <c r="K14" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J15" s="1">
+        <v>10.5</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J16" s="1">
+        <f>2036*42699/1000000/60</f>
+        <v>1.4489194000000001</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H17" s="1">
+        <v>1</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J17" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J18" s="1">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H19" s="1">
+        <v>1</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J19" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H20" s="1">
+        <v>1</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J20" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J21" s="1">
+        <f>324*52494/1000000/60</f>
+        <v>0.28346759999999999</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H22" s="1">
+        <v>1</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J22" s="1">
+        <f>54.5*61207/1000000/60</f>
+        <v>5.5596358333333332E-2</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J23" s="1">
+        <f>336*36168/1000000/60</f>
+        <v>0.20254079999999999</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J24" s="1">
+        <v>1.73</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J25" s="1">
+        <f>134*39087/1000000/60</f>
+        <v>8.7294299999999991E-2</v>
+      </c>
+      <c r="K25" s="1" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2032,10 +2811,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9045ECFB-D03A-4A42-81CA-D8583A59407B}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="J1" sqref="J1:L1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2068,72 +2847,132 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>109</v>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
+        <v>238</v>
       </c>
     </row>
   </sheetData>

--- a/Data/New_pathway_noscapine.xlsx
+++ b/Data/New_pathway_noscapine.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cheyu/Documents/GitHub/CofactorYeast/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{615E6933-0846-7343-AC84-223BAB4DEF78}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{998797D8-3F6F-E148-9D2B-77AA761BD5BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{AA1C94E4-56CD-3140-BF87-113D1E6E5D47}"/>
   </bookViews>
@@ -481,9 +481,6 @@
     </r>
   </si>
   <si>
-    <t>﻿berberine bridge enzyme</t>
-  </si>
-  <si>
     <t>1.21.3.3</t>
   </si>
   <si>
@@ -496,15 +493,9 @@
     <t>MATNGEIFNTYGHNHQSATVTKITASNESSNGVCYLSETANLGKLICIPMALRAAMELNVFQLISKFGTDAKVSASEIASKMPNAKNNPEAAMYLDRILRLLGASSILSVSTTKKSINRGGDDVVVHEKLYGLTNSSCCLVPRQEDGVSLVEELLFTSDKVVVDSFFKLKCVVEEKDSVPFEVAHGAKIFEYAATEPRMNQVFNDGMAVFSIVVFEAVFRVYDGFLDMKELLDVGGGIGTSVSKIVAKYPLIRGVNFDLPHVISVAPQYPGVEHVAGDMFEEVPKGQNMLLKWVLHDWGDERCVKLLKNCWNSLPVGGKVLIIEFVLPNELGNNAESFNALIPDLLLMALNPGGKERTISEYDDLGKAAGFIKTIPIPISNGLHVIEFHK</t>
   </si>
   <si>
-    <t>﻿scoulerine 9-O-methyltransferase</t>
-  </si>
-  <si>
     <t>2.1.1.117</t>
   </si>
   <si>
-    <t>﻿canadine synthase</t>
-  </si>
-  <si>
     <t>MEMNPLLVCATVAIVFATTTIIRILFSSSSLPQMKWPSGPRKLPIIGNLHQLGDDVLHVALAKLAKVHGSVMTIWIGSWRPVIVISDIEKAWEVLVNKSADYGARDMPEITKIASASWHTISTSDAGSFWQNVRKGLQSGAMGPLNVAAQNQYQERDMKRLIKAMSDEAANNNGIVKPLDHIKKNTVRLLTRLIFGQAFDDNKFIESMHYEIEDIIRISGYARLAEAFYYAKYLPSHKKAEREAFLVKCRVEELVRPLLSSKPPTNSYLYFLLSQNFEEEVIIFCIFELYLLGVDSTSSTTTWALAYLIREQGAQEKLYQDIRMTLGDVDLVKIEDVNKLKYLQGVVKETMRMKPIAPLAIPHKTAKETTLMGTKVAKGTRIMVNLYALHHNQNIWPDPYKFMPERFLEGETGTAYNKAMEQSFLPFSAGMRICAGMDLGKLQFAFALANLVNAFKWSCVEEGKLPDMGEELSFVLLMKTPLEARIAGRNV</t>
   </si>
   <si>
@@ -514,9 +505,6 @@
     <t>Brenda (median of max kcats of 1.14.19.-)</t>
   </si>
   <si>
-    <t>﻿tetrahydroprotoberberine cis-N-methyltransferase</t>
-  </si>
-  <si>
     <t>MRTESIKTNRPMDLLLQYLQPISVALVVIALVWNYGRRNPTKKLAPEASGAWPVIGHLLLFMNENDLNHVTLGHMADKYGPIFSLRFGRHRTLVVSSWEMVKECFTGTNDKLFSNRPSSLAVKLMFYDTESYGFAPYGKYWRELRKISTHKLLSNQQLEKFKHLRISEVDNSFKKLHELCSNNKQGGDTTYVASLVRMDDWFAYLTFNVIGRIVSGFQSNAVAGATNSQEKYKLAIDEVSNLMATFAVSDVVPRLGWIDRLTGLTGKMKNCGKKLDAVVGDAVEDHRQKKLKISRNNTGALTEHEEEDFIDVCLSIMEQSQIPGNHPEISVKSIALDMLSGGSDTTKLIMTWTLSLLLNHPDILDKAKEEVDTYFGKKKISDNTPVVDAADVPNLVYIQAIIKESMRLYPASTLMERMTSDDCDVGGFHVPAGTRLWVNVWKMQRDPRVWKDPLVFLPERFLSNDKGMVDVKGQNYELIPFGTGRRICPGASFALEVLHLVLTRLILEFEMKAPEGKIDMRARPGFFHNKVVPLDVQLTPRTLD</t>
   </si>
   <si>
@@ -538,9 +526,6 @@
     <t>MGSIDEVKKESAGETLGRLLKGEIKDEELKKLIKFQFEKRLQWGYKSSHQEQLSFNLDFIKSLKKMEMSGEIETMNKETYELPSEFLEAVFGKTVKQSMCYFTHESATIDEAEEAAHELYCERAQIKDGQTVLDIGCGQGGLVLYIAQKYKNCHVTGLTNSKAQVNYLLKQAEKLGLTNVDAILADVTQYESDKTYDRLLMIEAIEHMKNLQLFMKKLSTWMTKESLLFVDHVCHKTFAHFFEAVDEDDWYSGFIFPPGCATILAANSLLYFQDDVSVVDHWVVNGMHMARSVDIWRKALDKNMEAAKEILLPGLGGSHETVNGVVTHIRTFCMGGYEQFSMNNGDEWMVAQLLFKKK</t>
   </si>
   <si>
-    <t>﻿1-hydroxy-N-methylcanadine synthase</t>
-  </si>
-  <si>
     <t>1.14.14.166</t>
   </si>
   <si>
@@ -553,9 +538,6 @@
     <t>MKSLMMNKLLFLQRITDSPSTTIISTFIVTIISIVFLYTVLLIRTTKNKQKIAAPKASGAWPFIGHLKLFMKQDTQFYRTLGTMSDKYGSVFTLRLGNQAILVVSNWEMVKECFTTNDKSFSNRPSTLSTKYMLNDTNSVVFSPYGTYWREMRKILVQKLLISNQRSEALKNLKTKEIDNSFVKLNDLCNNDVSGGGTKVRMDEWLADMMFNIIARITFGYQSGGGDAPGASTTSKNVERYKKTLDEMFVVLATRFAVSDIFPSLEFIDRLRGLVKDMKILGDELNSIAGCFIEEHRQKRRESLSSLLSLSNESVGDEQDFIDVLLSIMDQSRLPGDDPDFIIKIMILEAFAGGTDSLSATLTWVLSLLLNHPNVLKRAREEIDRHVENGKQVEVSDIPKLGYIDAIIKETMRLYPVGALSERYTTEECEVGRFNVPAGTRLLVNIWKIHRDPSVWENPSDFQPERFLCSDKVGVDLYGQNYELIPFGAGRRVCPAIVSSLQTMHYALARLIQGYEMKSASLDGKVNMEEMIAMSCHKMSPLEVIISPREPRRS</t>
   </si>
   <si>
-    <t>﻿1-hydroxy-N-methylcanadine 13-hydroxylase</t>
-  </si>
-  <si>
     <t>1.14.14.163</t>
   </si>
   <si>
@@ -565,9 +547,6 @@
     <t>MATMSSAAVEVISKETIKPRNPTPYQLRNYNMSLLDQYSSLVYVPIILFYPAASDANSTGSKHHDDLHLLKRSLSETLVHFYPMAGRMKDNMTVDCNDEGIDFFEVRIKGRMCDFMMKSDAHLSLLLPSEVASTNFVKEAQVIVQVNMFDCGGTAICFCISNKIADACTMITFIRSLAGTTNIARRGSSIAAPTTNQNLVPSFDSTSLFPPSEQLASQVSYPTQDSTSVDKLVSKRFVFDAAKITSAREKLQSLMHDKYKCHRPTRVEVVSALIWKSAVKSAPPGSISTVTHAMNFRKKMDPPLQDASFGNLCVVVTAVLPATTATTTNPATKKVSSTSNEEQVALDELSDFVALLRREIDKVKGDKGCMEKIIQKFIYGHDASVAKDSDVEDKVTALFMTSWCKFGFYEADFGWGTPVWVTTVPLIEPKYKNMVFMNDMKCGEGIEVWVNFLEDDMTKFEHHLREILQLF</t>
   </si>
   <si>
-    <t>﻿1,13-dihydroxy-N-methylcandine 13-﻿O-acetyltransferase</t>
-  </si>
-  <si>
     <t>2.3.1.285</t>
   </si>
   <si>
@@ -580,25 +559,16 @@
     <t>MELFIKLPFIQPIPFSIILVTTVSIVLLYSVFFWVTDKKKKRKKAPNAAGAWPLIGHLRLLMNDKEPLYRALGSMADKYGPAFNIRLGNQEVLVVSNWEMVKQCFGNQNDKLFSNRQTTLAAKYMLNQTTSSGFAPYGPYWRELRKIMVQQLLSKQSLESWKHLKIKEMDASFSKLNELCNNNGTGTATLIRMDEWFAELTFNVIARNVFGYQSGGRSTALTNGDTESKGERYKKTLEEALHLMSIFAVSDIFPSLEWVDRLRGLIRNMKRFGDELNSIAGCLIEEHRQKRLQSVSKSDKGVGDEQDFVDVLLSVAEKSQLPGDDPDLVIKSMILEIVSGGSETTSSTLTWALCLLLNHPHVLKKAKEELDTHVGKDRHVEESDTPKLVYINAIIKESMRLYPNGAMLDRLALEECEVGGFHVPAGGRLFVNVWKIQRDPSVWENPLEFKPERWFLSNGEKMDVDYKGHNHEFIPFGIGRRMCAGMLWASEVIHLVLPRLIHGFDMKAASANGKVDMAEMAGMVICFKKTPLEVMVNPRE</t>
   </si>
   <si>
-    <t>﻿1-hydroxy-13-O-acetyl-N-methylcanadine 8-hydroxylase</t>
-  </si>
-  <si>
     <t>1.14.14.167</t>
   </si>
   <si>
     <t>MADPYEFLMCIHNPEEDTLTRNFPIPATPLDQNTKDISLNPDRKTSLRIFRPPTKEPPVTKNKLLPIIIYFHGGGFILFNADSTMNHDFCQSIATHIPALVVSVDYRLAPENRLPAAYDDAVDALNWVKDQGLGKLNNSEVWLKEYGDFSKCFIMGCSSGANVAYHASLRAIEMDLEPAKINGLILHCPFFGSLERTESDSKVINNQDLPLAVRDVMWELALPLGSTRDHVYCNPNIDHDGSSSGNMVGLIERCFVVGFYGDPLIDRQIQLVKMLEEKGVKVETWIEQGGYHGVLCFDPMIRETFLEKLKHFILNDEFIY</t>
   </si>
   <si>
-    <t>﻿3-O-acetylpapaveroxine carboxylesterase</t>
-  </si>
-  <si>
     <t>3.1.1.105</t>
   </si>
   <si>
     <t>2.1.1.352</t>
-  </si>
-  <si>
-    <t>﻿short-chain dehydrogenase/reductase</t>
   </si>
   <si>
     <t>MHGQKNISERYQKFKEMEGTGKIVCVTGGAGYLASWLIMRLLERGYSVRTTVRSDPKFREDVSHLKALPEATEKLQIFEADLENPESFDDAINGCVGVFLVAQGMNFAEEYTLEKIIKTCVEGTLRILQSCLKSKTVKKVVYTSSADAAMMISNLKAVKEIDETIWSEVDNFISKPEQVIPGLPSYVVSKVLTERACLKFSEEHGLDVVTILPPLVVGPFITPHPPPSVSIALSIISGDVSMMLGVRLENAVHIDDVALAHIFVFECEKAKGRHICSSVDFPMHDLPKFISENYPEFNVPTDLLKDIEEQEPVHLSSDKLLSMGFQFKYDFAEIFGDAIRCAKEKGFL</t>
@@ -924,6 +894,36 @@
       </rPr>
       <t xml:space="preserve"> + carbon&amp;dioxide[cytoplasm]</t>
     </r>
+  </si>
+  <si>
+    <t>berberine bridge enzyme</t>
+  </si>
+  <si>
+    <t>scoulerine 9-O-methyltransferase</t>
+  </si>
+  <si>
+    <t>canadine synthase</t>
+  </si>
+  <si>
+    <t>tetrahydroprotoberberine cis-N-methyltransferase</t>
+  </si>
+  <si>
+    <t>1-hydroxy-N-methylcanadine synthase</t>
+  </si>
+  <si>
+    <t>1-hydroxy-N-methylcanadine 13-hydroxylase</t>
+  </si>
+  <si>
+    <t>1,13-dihydroxy-N-methylcandine 13-﻿O-acetyltransferase</t>
+  </si>
+  <si>
+    <t>1-hydroxy-13-O-acetyl-N-methylcanadine 8-hydroxylase</t>
+  </si>
+  <si>
+    <t>3-O-acetylpapaveroxine carboxylesterase</t>
+  </si>
+  <si>
+    <t>short-chain dehydrogenase/reductase</t>
   </si>
 </sst>
 </file>
@@ -1297,7 +1297,7 @@
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1328,16 +1328,16 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>5</v>
@@ -1345,7 +1345,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>59</v>
@@ -1354,7 +1354,7 @@
         <v>71</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>15</v>
@@ -1362,16 +1362,16 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>60</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>20</v>
@@ -1379,7 +1379,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>61</v>
@@ -1388,7 +1388,7 @@
         <v>72</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>21</v>
@@ -1396,7 +1396,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>62</v>
@@ -1405,21 +1405,21 @@
         <v>73</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>63</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>152</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>24</v>
@@ -1427,16 +1427,16 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>64</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>143</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>153</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>25</v>
@@ -1444,16 +1444,16 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>35</v>
@@ -1461,16 +1461,16 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>66</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>39</v>
@@ -1478,16 +1478,16 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>67</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>50</v>
@@ -1495,7 +1495,7 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>68</v>
@@ -1504,7 +1504,7 @@
         <v>74</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>43</v>
@@ -1512,7 +1512,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>69</v>
@@ -1521,7 +1521,7 @@
         <v>75</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>45</v>
@@ -1529,7 +1529,7 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>70</v>
@@ -1538,7 +1538,7 @@
         <v>76</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>47</v>
@@ -1546,16 +1546,16 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>77</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>53</v>
@@ -1563,194 +1563,194 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>78</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>83</v>
+        <v>183</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>85</v>
+        <v>184</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>89</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>97</v>
+        <v>186</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>102</v>
+        <v>187</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>106</v>
+        <v>188</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>111</v>
+        <v>189</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>114</v>
+        <v>190</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>117</v>
+        <v>191</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>56</v>
@@ -1761,7 +1761,7 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>55</v>
@@ -1819,7 +1819,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>32</v>
@@ -1831,7 +1831,7 @@
         <v>16</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="F2" s="1">
         <v>3</v>
@@ -1842,7 +1842,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>32</v>
@@ -1854,18 +1854,18 @@
         <v>17</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="F3" s="1">
         <v>0</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>32</v>
@@ -1877,18 +1877,18 @@
         <v>17</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="F4" s="1">
         <v>0</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>32</v>
@@ -1900,18 +1900,18 @@
         <v>17</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>32</v>
@@ -1923,18 +1923,18 @@
         <v>17</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
@@ -1946,18 +1946,18 @@
         <v>17</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>34</v>
@@ -1969,18 +1969,18 @@
         <v>17</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="F8" s="1">
         <v>0</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>42</v>
@@ -1992,18 +1992,18 @@
         <v>17</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="F9" s="1">
         <v>0</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>38</v>
@@ -2015,7 +2015,7 @@
         <v>16</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="F10" s="1">
         <v>1</v>
@@ -2026,7 +2026,7 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>42</v>
@@ -2038,18 +2038,18 @@
         <v>17</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="F11" s="1">
         <v>0</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>42</v>
@@ -2061,18 +2061,18 @@
         <v>17</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="F12" s="1">
         <v>0</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>48</v>
@@ -2084,7 +2084,7 @@
         <v>17</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="F13" s="1">
         <v>1</v>
@@ -2095,7 +2095,7 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>42</v>
@@ -2107,76 +2107,76 @@
         <v>17</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="F14" s="1">
         <v>0</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="2" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>42</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="F15" s="1">
         <v>0</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>42</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>16</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="2" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>16</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="F17" s="1">
         <v>1</v>
@@ -2187,42 +2187,42 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="2" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>42</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="F18" s="1">
         <v>0</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="3" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>42</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>16</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="F19" s="1">
         <v>1</v>
@@ -2233,19 +2233,19 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="3" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>42</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>16</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="F20" s="1">
         <v>1</v>
@@ -2256,42 +2256,42 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="3" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>42</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="F21" s="1">
         <v>0</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="3" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>42</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="F22" s="1">
         <v>1</v>
@@ -2302,71 +2302,71 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="2" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>42</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>16</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="F23" s="1">
         <v>0</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="3" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>42</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>16</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="F24" s="1">
         <v>0</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="2" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>42</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="F25" s="1">
         <v>0</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -2396,18 +2396,18 @@
         <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
@@ -2415,10 +2415,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="C3" s="1">
         <v>1</v>
@@ -2426,10 +2426,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
@@ -2437,10 +2437,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
@@ -2448,10 +2448,10 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
@@ -2459,10 +2459,10 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="B7" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="C7" s="1">
         <v>1</v>
@@ -2470,10 +2470,10 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="B8" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="C8" s="1">
         <v>1</v>
@@ -2481,10 +2481,10 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="C9" s="1">
         <v>1</v>
@@ -2492,10 +2492,10 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="C10" s="1">
         <v>1</v>
@@ -2503,10 +2503,10 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="C11" s="1">
         <v>1</v>
@@ -2514,10 +2514,10 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="C12" s="1">
         <v>1</v>
@@ -2525,10 +2525,10 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="C13" s="1">
         <v>1</v>
@@ -2536,10 +2536,10 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="C14" s="1">
         <v>1</v>
@@ -2547,10 +2547,10 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="C15" s="1">
         <v>1</v>
@@ -2558,10 +2558,10 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="C16" s="1">
         <v>1</v>
@@ -2569,10 +2569,10 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="C17" s="1">
         <v>1</v>
@@ -2580,10 +2580,10 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="C18" s="1">
         <v>1</v>
@@ -2591,10 +2591,10 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="C19" s="1">
         <v>1</v>
@@ -2602,10 +2602,10 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="C20" s="1">
         <v>1</v>
@@ -2613,10 +2613,10 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="C21" s="1">
         <v>1</v>
@@ -2624,10 +2624,10 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="C22" s="1">
         <v>1</v>
@@ -2635,10 +2635,10 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="C23" s="1">
         <v>1</v>
@@ -2646,10 +2646,10 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="C24" s="1">
         <v>1</v>
@@ -2657,10 +2657,10 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="C25" s="1">
         <v>1</v>
@@ -2700,7 +2700,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="B2" s="1">
         <v>2.5</v>
@@ -2711,7 +2711,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="B3" s="1">
         <f>0.2883*16241/60/1000</f>
@@ -2723,7 +2723,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="B4" s="1">
         <f>18*28128/60/1000</f>
@@ -2735,7 +2735,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="B5" s="1">
         <v>10</v>
@@ -2746,7 +2746,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="B6" s="1">
         <f>28*21638/60/1000</f>
@@ -2758,7 +2758,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="B7" s="1">
         <v>153</v>
@@ -2769,7 +2769,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="B8" s="1">
         <v>1.8</v>
@@ -2780,7 +2780,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="B9" s="1">
         <v>65.900000000000006</v>
@@ -2791,7 +2791,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="B10" s="1">
         <v>5.8</v>
@@ -2802,7 +2802,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="B11" s="1">
         <v>0.08</v>
@@ -2813,29 +2813,29 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="B12" s="1">
         <v>0.14000000000000001</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="B13" s="1">
         <v>0.45</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="B14" s="1">
         <f>1824*39691/1000000000</f>
@@ -2847,18 +2847,18 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="B15" s="1">
         <v>10.5</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="B16" s="1">
         <f>2036*42699/1000000/60</f>
@@ -2870,51 +2870,51 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="B17" s="1">
         <v>0.04</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="B18" s="1">
         <v>0.14000000000000001</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="B19" s="1">
         <v>0.45</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="B20" s="1">
         <v>0.45</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="B21" s="1">
         <f>324*52494/1000000/60</f>
@@ -2926,7 +2926,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="B22" s="1">
         <f>54.5*61207/1000000/60</f>
@@ -2938,7 +2938,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="B23" s="1">
         <f>336*36168/1000000/60</f>
@@ -2950,18 +2950,18 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="B24" s="1">
         <v>1.73</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="B25" s="1">
         <f>134*39087/1000000/60</f>
